--- a/pre_processing/target_encoder_registered_via.xlsx
+++ b/pre_processing/target_encoder_registered_via.xlsx
@@ -450,23 +450,23 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.194</v>
+        <v>-1.169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.265</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.334</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.697</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.361</v>
+        <v>1.289</v>
       </c>
     </row>
     <row r="7">

--- a/pre_processing/target_encoder_registered_via.xlsx
+++ b/pre_processing/target_encoder_registered_via.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.169</v>
+        <v>-1.052</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.341</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.372</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.73</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -482,14 +482,8 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.289</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
+        <v>1.125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
